--- a/img/ukuran/size.xlsx
+++ b/img/ukuran/size.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7275" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sepatu sandal" sheetId="1" r:id="rId1"/>
+    <sheet name="gamis koko" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>SIZE</t>
   </si>
@@ -36,6 +37,54 @@
   </si>
   <si>
     <t>Ukuran Sepatu &amp; Sandal Pria</t>
+  </si>
+  <si>
+    <t>Catatan : Ukuran tertera adalah pola standard. Ukuran dapat berbeda-beda pada setiap model.</t>
+  </si>
+  <si>
+    <t>SIZE CHART GAMIS</t>
+  </si>
+  <si>
+    <t>UKURAN</t>
+  </si>
+  <si>
+    <t>LINGKAR DADA</t>
+  </si>
+  <si>
+    <t>PANJANG TANGAN</t>
+  </si>
+  <si>
+    <t>PANJANG GAMIS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Catatan :</t>
+  </si>
+  <si>
+    <t>- Ukuran dalam centimeter (cm)</t>
+  </si>
+  <si>
+    <t>- Ukuran tertera adalah pola standard. Ukuran dapat berbeda-beda pada setiap model.</t>
+  </si>
+  <si>
+    <t>SIZE CHART BAJU KOKO</t>
+  </si>
+  <si>
+    <t>LEBAR DADA</t>
+  </si>
+  <si>
+    <t>PANJANG BAJU</t>
   </si>
 </sst>
 </file>
@@ -66,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +140,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,7 +198,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,6 +213,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -424,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,8 +648,191 @@
         <v>28.6</v>
       </c>
     </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
+        <v>90</v>
+      </c>
+      <c r="D4" s="10">
+        <v>96</v>
+      </c>
+      <c r="E4" s="10">
+        <v>100</v>
+      </c>
+      <c r="F4" s="10">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>56</v>
+      </c>
+      <c r="D5" s="14">
+        <v>58</v>
+      </c>
+      <c r="E5" s="14">
+        <v>60</v>
+      </c>
+      <c r="F5" s="14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12">
+        <v>130</v>
+      </c>
+      <c r="D6" s="12">
+        <v>134</v>
+      </c>
+      <c r="E6" s="12">
+        <v>135</v>
+      </c>
+      <c r="F6" s="12">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10">
+        <v>50</v>
+      </c>
+      <c r="D15" s="10">
+        <v>52</v>
+      </c>
+      <c r="E15" s="10">
+        <v>56</v>
+      </c>
+      <c r="F15" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14">
+        <v>73</v>
+      </c>
+      <c r="D16" s="14">
+        <v>75</v>
+      </c>
+      <c r="E16" s="14">
+        <v>77</v>
+      </c>
+      <c r="F16" s="14">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>